--- a/C2/Project_files/Updated Bakery Sales March 2020.xlsx
+++ b/C2/Project_files/Updated Bakery Sales March 2020.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="600" windowWidth="22716" windowHeight="10788" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Raw_Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Summary_Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -62,51 +66,57 @@
   </si>
   <si>
     <t>Pie Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans Mono&quot;"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -114,66 +124,128 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -363,25 +435,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="15.75"/>
-    <col customWidth="1" min="7" max="7" width="20.5"/>
-    <col customWidth="1" min="8" max="26" width="15.75"/>
+    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="26" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -394,451 +469,885 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>45010.0</v>
+        <v>45010</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="E2" s="6">
-        <f t="shared" ref="E2:E22" si="1">C2*D2</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>45010.0</v>
+        <v>45010</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>45010</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>45011</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>40</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>45011</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>45012</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>45012</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>45012</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>45013</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>32</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>45013</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>45014</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>38</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>45014</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>45014</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>45015</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>45015</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="26" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14">
+        <v>45010</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>30</v>
+      </c>
+      <c r="E2" s="16">
+        <f t="shared" ref="E2:E22" si="0">C2*D2</f>
+        <v>60</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14">
+        <v>45010</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>20</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="20">
         <f>D3+D8+D13+D18+D22</f>
         <v>117</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>45010.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="14">
+        <v>45010</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="1"/>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>12</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="20">
         <f>D2+D5+D7+D10+D12+D15+D17+D21</f>
         <v>291</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>45011.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>40.0</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14">
+        <v>45011</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17">
+        <v>40</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="20">
         <f>D4+D9+D14+D19</f>
         <v>54</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>45011.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="14">
+        <v>45011</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
+      <c r="C6" s="16">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="20">
         <f>D6+D11+D16+D20</f>
         <v>66</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>45012.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>35.0</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14">
+        <v>45012</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>35</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>45012.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14">
+        <v>45012</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>45012.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14">
+        <v>45012</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="1"/>
+      <c r="C9" s="16">
+        <v>3</v>
+      </c>
+      <c r="D9" s="17">
+        <v>14</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="21">
         <f>H3*1</f>
         <v>117</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>45013.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>32.0</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14">
+        <v>45013</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="22">
         <f>H4*2</f>
         <v>582</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>45013.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="14">
+        <v>45013</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
+      <c r="C11" s="16">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17">
+        <v>16</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="22">
         <f>H5*3</f>
         <v>162</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>45014.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>38.0</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14">
+        <v>45014</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="22">
         <f>H6*5</f>
         <v>330</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>45014.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="14">
+        <v>45014</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>45014.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14">
+        <v>45014</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
+      <c r="C14" s="16">
+        <v>3</v>
+      </c>
+      <c r="D14" s="17">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>45015.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>36.0</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="1"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="14">
+        <v>45015</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>36</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>45015.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="14">
+        <v>45015</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
+      <c r="C16" s="16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="17">
+        <v>17</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>45016.0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>39.0</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>39</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>45016.0</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="1"/>
+      <c r="C18" s="16">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17">
         <v>24</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>45016.0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
+      <c r="C19" s="16">
+        <v>3</v>
+      </c>
+      <c r="D19" s="17">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>45016.0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="1"/>
+      <c r="C20" s="16">
+        <v>5</v>
+      </c>
+      <c r="D20" s="17">
+        <v>18</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>45016.0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="1"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="16">
+        <v>2</v>
+      </c>
+      <c r="D21" s="17">
+        <v>41</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>45016.0</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="14">
+        <v>45016</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="1"/>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="17">
         <v>26</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="D24" s="11"/>
+      <c r="E22" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="D24" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>